--- a/Data/Temp/Yearly-Report-2021-RO874231.xlsx
+++ b/Data/Temp/Yearly-Report-2021-RO874231.xlsx
@@ -14,7 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <x:si>
+    <x:t>696106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28564.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>353860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35537.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
   <x:si>
     <x:t>843367</x:t>
   </x:si>
@@ -22,6 +64,9 @@
     <x:t>Beverages and Catering</x:t>
   </x:si>
   <x:si>
+    <x:t>2017-07-01</x:t>
+  </x:si>
+  <x:si>
     <x:t>289919</x:t>
   </x:si>
   <x:si>
@@ -34,15 +79,15 @@
     <x:t>CAD</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-07-01</x:t>
-  </x:si>
-  <x:si>
     <x:t>465922</x:t>
   </x:si>
   <x:si>
     <x:t>Various paper supplies</x:t>
   </x:si>
   <x:si>
+    <x:t>2017-07-12</x:t>
+  </x:si>
+  <x:si>
     <x:t>234980</x:t>
   </x:si>
   <x:si>
@@ -52,39 +97,15 @@
     <x:t>281976</x:t>
   </x:si>
   <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>353860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35537.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-07</x:t>
-  </x:si>
-  <x:si>
     <x:t>600102</x:t>
   </x:si>
   <x:si>
     <x:t>IT Support</x:t>
   </x:si>
   <x:si>
+    <x:t>2017-10-10</x:t>
+  </x:si>
+  <x:si>
     <x:t>216730</x:t>
   </x:si>
   <x:si>
@@ -92,9 +113,6 @@
   </x:si>
   <x:si>
     <x:t>260076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-10</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -522,22 +540,22 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>6</x:v>
@@ -545,25 +563,25 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -583,10 +601,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
